--- a/testing_results/inference_time_tai30x20.xlsx
+++ b/testing_results/inference_time_tai30x20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,170 +443,49 @@
       <c r="C1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>13</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7.09526162147522</v>
+        <v>7.067881393432617</v>
       </c>
       <c r="B2" t="n">
-        <v>7.009058213233947</v>
+        <v>6.910189723968506</v>
       </c>
       <c r="C2" t="n">
-        <v>7.104586696624756</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.024691939353943</v>
-      </c>
-      <c r="E2" t="n">
-        <v>7.063676571846008</v>
-      </c>
-      <c r="F2" t="n">
-        <v>7.108716058731079</v>
-      </c>
-      <c r="G2" t="n">
-        <v>7.093509912490845</v>
-      </c>
-      <c r="H2" t="n">
-        <v>7.034157013893127</v>
-      </c>
-      <c r="I2" t="n">
-        <v>7.132139921188354</v>
-      </c>
-      <c r="J2" t="n">
-        <v>7.015422677993774</v>
-      </c>
-      <c r="K2" t="n">
-        <v>7.087409472465515</v>
-      </c>
-      <c r="L2" t="n">
-        <v>7.072066926956177</v>
-      </c>
-      <c r="M2" t="n">
-        <v>6.952633833885193</v>
-      </c>
-      <c r="N2" t="n">
-        <v>119.9700900316238</v>
+        <v>114.3893653154373</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>14.09686305522919</v>
+        <v>14.24261229038239</v>
       </c>
       <c r="B3" t="n">
-        <v>14.04180135726929</v>
+        <v>13.93613154888153</v>
       </c>
       <c r="C3" t="n">
-        <v>14.16614751815796</v>
-      </c>
-      <c r="D3" t="n">
-        <v>14.10474407672882</v>
-      </c>
-      <c r="E3" t="n">
-        <v>14.14201030731201</v>
-      </c>
-      <c r="F3" t="n">
-        <v>14.17357747554779</v>
-      </c>
-      <c r="G3" t="n">
-        <v>14.13989956378937</v>
-      </c>
-      <c r="H3" t="n">
-        <v>14.06925435066223</v>
-      </c>
-      <c r="I3" t="n">
-        <v>14.24132165908813</v>
-      </c>
-      <c r="J3" t="n">
-        <v>14.07060656547546</v>
-      </c>
-      <c r="K3" t="n">
-        <v>14.11026709079743</v>
-      </c>
-      <c r="L3" t="n">
-        <v>14.17849569320679</v>
-      </c>
-      <c r="M3" t="n">
-        <v>14.01370055675507</v>
-      </c>
-      <c r="N3" t="n">
-        <v>239.2080611944199</v>
+        <v>229.3435194969177</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>28.31435589790344</v>
+        <v>28.18364524841309</v>
       </c>
       <c r="B4" t="n">
-        <v>28.1929233789444</v>
+        <v>27.44747986793518</v>
       </c>
       <c r="C4" t="n">
-        <v>28.42792840003967</v>
-      </c>
-      <c r="D4" t="n">
-        <v>28.32250609397888</v>
-      </c>
-      <c r="E4" t="n">
-        <v>28.42763640880585</v>
-      </c>
-      <c r="F4" t="n">
-        <v>28.35531809329986</v>
-      </c>
-      <c r="G4" t="n">
-        <v>28.24458932876587</v>
-      </c>
-      <c r="H4" t="n">
-        <v>28.17327501773834</v>
-      </c>
-      <c r="I4" t="n">
-        <v>28.56007351875305</v>
-      </c>
-      <c r="J4" t="n">
-        <v>28.1241584777832</v>
-      </c>
-      <c r="K4" t="n">
-        <v>28.31533358097077</v>
-      </c>
-      <c r="L4" t="n">
-        <v>28.22792580127716</v>
-      </c>
-      <c r="M4" t="n">
-        <v>28.24720821380615</v>
-      </c>
-      <c r="N4" t="n">
-        <v>459.2765295267105</v>
+        <v>400.1611674308777</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>63.61227202415466</v>
+      </c>
+      <c r="B5" t="n">
+        <v>63.34563031196594</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1086.651348805427</v>
       </c>
     </row>
   </sheetData>
